--- a/server/resources/files/רישום ספורטאים לתחרות.xlsx
+++ b/server/resources/files/רישום ספורטאים לתחרות.xlsx
@@ -414,10 +414,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>2</v>
@@ -463,7 +460,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>4</v>
@@ -509,7 +506,10 @@
         <v>14</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>6</v>
@@ -532,7 +532,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>7</v>
@@ -601,7 +601,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>10</v>
@@ -969,7 +969,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z27" s="2" t="s">
         <v>26</v>
@@ -992,10 +992,7 @@
         <v>20</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="Z28" s="2" t="s">
         <v>27</v>
@@ -1105,13 +1102,13 @@
     <dataValidation type="custom" allowBlank="0" showErrorMessage="1" error="אינך יכול לשנות תא זה." sqref="H1">
       <formula1>"H1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="0" showInputMessage="1" showErrorMessage="1" error="Invalid choice was chosen" prompt="בחר קטגוריה" sqref="F2:F31">
+    <dataValidation type="list" allowBlank="0" showInputMessage="1" showErrorMessage="1" error="Invalid choice was chosen" prompt="בחר קטגוריה" sqref="F2:F30">
       <formula1>=sheet1!$Z$2:$Z$100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="0" showInputMessage="1" showErrorMessage="1" error="Invalid choice was chosen" prompt="בחר קטגוריה" sqref="G2:G31">
+    <dataValidation type="list" allowBlank="0" showInputMessage="1" showErrorMessage="1" error="Invalid choice was chosen" prompt="בחר קטגוריה" sqref="G2:G30">
       <formula1>=sheet1!$Z$2:$Z$100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="0" showInputMessage="1" showErrorMessage="1" error="Invalid choice was chosen" prompt="בחר קטגוריה" sqref="H2:H31">
+    <dataValidation type="list" allowBlank="0" showInputMessage="1" showErrorMessage="1" error="Invalid choice was chosen" prompt="בחר קטגוריה" sqref="H2:H30">
       <formula1>=sheet1!$Z$2:$Z$100</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="0" showErrorMessage="1" error="אינך יכול לשנות תא זה." sqref="A2">
